--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC74C19B-7B19-4465-83FD-D41557032EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA701A-B320-4A1E-A07D-E33831E42E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -77,19 +77,85 @@
     <t>Carlos Paz &amp; Oriana</t>
   </si>
   <si>
-    <t>Cuban Salsa</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>Daniel &amp; Pebbles</t>
+  </si>
+  <si>
+    <t>Laura Ann Williams</t>
+  </si>
+  <si>
+    <t>Styling for All</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Salsa</t>
+  </si>
+  <si>
+    <t>Alberto &amp; Jolie</t>
+  </si>
+  <si>
+    <t>Gabriel HappyFeet</t>
+  </si>
+  <si>
+    <t>Jessica &amp; Leon</t>
+  </si>
+  <si>
+    <t>Salsa Cubana</t>
+  </si>
+  <si>
+    <t>Salsa On1</t>
+  </si>
+  <si>
+    <t>Pierre &amp; Laura</t>
+  </si>
+  <si>
+    <t>Bachata Moderna</t>
+  </si>
+  <si>
+    <t>Bachata Footwork</t>
+  </si>
+  <si>
+    <t>Peynao Er Bachatero</t>
+  </si>
+  <si>
+    <t>Andre &amp; Aurora</t>
+  </si>
+  <si>
+    <t>Giovanna &amp; Rafael</t>
+  </si>
+  <si>
+    <t>Bish &amp; Beth</t>
+  </si>
+  <si>
+    <t>Urban Bachata</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Reggaeton</t>
+  </si>
+  <si>
+    <t>Sirran Elves</t>
+  </si>
+  <si>
+    <t>Ladies Styling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,15 +187,18 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -141,9 +210,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,16 +225,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
+  <autoFilter ref="A1:G16" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E66BE59D-27A3-4248-BB0C-02334051E333}" name="Hour" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BF9BD803-5FA4-4020-B390-CB7076EB1761}" name="AreaId" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E66BE59D-27A3-4248-BB0C-02334051E333}" name="Hour" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BF9BD803-5FA4-4020-B390-CB7076EB1761}" name="AreaId" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{DC077BB2-F2A9-4C33-B7DD-0C00D15EB8EC}" name="Act"/>
     <tableColumn id="5" xr3:uid="{CA91C7B8-A0CC-4700-A749-8ABE4BCFD906}" name="Title"/>
-    <tableColumn id="6" xr3:uid="{D79635C3-19B0-4F67-9F69-21C5C75FA60E}" name="LevelId" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{54F90E3C-1F86-4DCB-A2D4-F308AD897C9A}" name="GenreId" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D79635C3-19B0-4F67-9F69-21C5C75FA60E}" name="LevelId" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{54F90E3C-1F86-4DCB-A2D4-F308AD897C9A}" name="GenreId" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,31 +557,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -524,80 +590,333 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>45597</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B5" s="1">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B12" s="1">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B3" s="2">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B4" s="2">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA701A-B320-4A1E-A07D-E33831E42E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D2C437-C007-48A0-9447-CAB11A4DDDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -83,18 +83,12 @@
     <t>Daniel &amp; Pebbles</t>
   </si>
   <si>
-    <t>Laura Ann Williams</t>
-  </si>
-  <si>
     <t>Styling for All</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>Salsa</t>
-  </si>
-  <si>
     <t>Alberto &amp; Jolie</t>
   </si>
   <si>
@@ -122,12 +116,6 @@
     <t>Peynao Er Bachatero</t>
   </si>
   <si>
-    <t>Andre &amp; Aurora</t>
-  </si>
-  <si>
-    <t>Giovanna &amp; Rafael</t>
-  </si>
-  <si>
     <t>Bish &amp; Beth</t>
   </si>
   <si>
@@ -147,6 +135,60 @@
   </si>
   <si>
     <t>Ladies Styling</t>
+  </si>
+  <si>
+    <t>Thalia Padilla</t>
+  </si>
+  <si>
+    <t>Andre &amp; Katerina</t>
+  </si>
+  <si>
+    <t>Sandra &amp; Edward</t>
+  </si>
+  <si>
+    <t>Ramiro Zapata</t>
+  </si>
+  <si>
+    <t>Leandro Charanga</t>
+  </si>
+  <si>
+    <t>La Rueda de Casino</t>
+  </si>
+  <si>
+    <t>Giovana &amp; Rafael</t>
+  </si>
+  <si>
+    <t>Qiosen &amp; Nathalie</t>
+  </si>
+  <si>
+    <t>Cha Cha Chá</t>
+  </si>
+  <si>
+    <t>Gabriel &amp; Jessica</t>
+  </si>
+  <si>
+    <t>Bachata Dominicana</t>
+  </si>
+  <si>
+    <t>Dani K</t>
+  </si>
+  <si>
+    <t>Intro to On2</t>
+  </si>
+  <si>
+    <t>Brighton Your Bachata</t>
+  </si>
+  <si>
+    <t>Diego &amp; Ola</t>
+  </si>
+  <si>
+    <t>Marky Marc</t>
+  </si>
+  <si>
+    <t>Smooth Salsa</t>
+  </si>
+  <si>
+    <t>Leo &amp; Carla</t>
   </si>
 </sst>
 </file>
@@ -154,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -190,14 +232,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -209,7 +251,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -225,16 +267,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="A2:A31"/>
+    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="C2:C31"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E66BE59D-27A3-4248-BB0C-02334051E333}" name="Hour" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BF9BD803-5FA4-4020-B390-CB7076EB1761}" name="AreaId" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E66BE59D-27A3-4248-BB0C-02334051E333}" name="Hour" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BF9BD803-5FA4-4020-B390-CB7076EB1761}" name="AreaId" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{DC077BB2-F2A9-4C33-B7DD-0C00D15EB8EC}" name="Act"/>
     <tableColumn id="5" xr3:uid="{CA91C7B8-A0CC-4700-A749-8ABE4BCFD906}" name="Title"/>
-    <tableColumn id="6" xr3:uid="{D79635C3-19B0-4F67-9F69-21C5C75FA60E}" name="LevelId" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{54F90E3C-1F86-4DCB-A2D4-F308AD897C9A}" name="GenreId" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D79635C3-19B0-4F67-9F69-21C5C75FA60E}" name="LevelId" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{54F90E3C-1F86-4DCB-A2D4-F308AD897C9A}" name="GenreId" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -568,8 +615,8 @@
     <col min="1" max="1" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -605,19 +652,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -628,19 +675,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -651,42 +698,42 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -694,19 +741,19 @@
         <v>45597</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -717,19 +764,19 @@
         <v>45597</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -743,33 +790,33 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -783,39 +830,39 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -829,22 +876,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B12" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -852,25 +899,25 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B13" s="1">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -881,19 +928,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -901,22 +948,367 @@
         <v>45598</v>
       </c>
       <c r="B15" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B26" s="1">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B29" s="1">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B30" s="1">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D2C437-C007-48A0-9447-CAB11A4DDDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AB8B7-8D30-4ED6-8FA1-772CFA2AD3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Leo &amp; Carla</t>
+  </si>
+  <si>
+    <t>Pierre Henry</t>
+  </si>
+  <si>
+    <t>Musicality</t>
   </si>
 </sst>
 </file>
@@ -267,12 +273,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="A2:A31"/>
-    <sortCondition ref="B2:B31"/>
-    <sortCondition ref="C2:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0">
+  <autoFilter ref="A1:G32" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
+    <sortCondition ref="A2:A32"/>
+    <sortCondition ref="B2:B32"/>
+    <sortCondition ref="C2:C32"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -994,7 +1000,7 @@
         <v>45598</v>
       </c>
       <c r="B17" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -1017,10 +1023,10 @@
         <v>45598</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
@@ -1063,19 +1069,19 @@
         <v>45598</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
@@ -1089,19 +1095,19 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1112,19 +1118,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1132,22 +1138,22 @@
         <v>45598</v>
       </c>
       <c r="B23" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1155,22 +1161,22 @@
         <v>45598</v>
       </c>
       <c r="B24" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1178,22 +1184,22 @@
         <v>45598</v>
       </c>
       <c r="B25" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1204,42 +1210,42 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B27" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1250,19 +1256,19 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1270,22 +1276,22 @@
         <v>45599</v>
       </c>
       <c r="B29" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1296,18 +1302,41 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245AB8B7-8D30-4ED6-8FA1-772CFA2AD3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748ECA68-BFA3-4B9A-96E3-C51F3EC0A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Sirran Elves</t>
   </si>
   <si>
-    <t>Ladies Styling</t>
-  </si>
-  <si>
     <t>Thalia Padilla</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Marky Marc</t>
   </si>
   <si>
-    <t>Smooth Salsa</t>
-  </si>
-  <si>
     <t>Leo &amp; Carla</t>
   </si>
   <si>
@@ -195,6 +189,63 @@
   </si>
   <si>
     <t>Musicality</t>
+  </si>
+  <si>
+    <t>Stephanie Lucero</t>
+  </si>
+  <si>
+    <t>BachAttitude</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>Heels</t>
+  </si>
+  <si>
+    <t>Dominican, Moderna &amp; Sensual</t>
+  </si>
+  <si>
+    <t>Camy</t>
+  </si>
+  <si>
+    <t>Pebbles</t>
+  </si>
+  <si>
+    <t>Afro</t>
+  </si>
+  <si>
+    <t>Debora Lima</t>
+  </si>
+  <si>
+    <t>Laura Ann Williams</t>
+  </si>
+  <si>
+    <t>Salsaton</t>
+  </si>
+  <si>
+    <t>Bachata Flow</t>
+  </si>
+  <si>
+    <t>Elijah &amp; Flame</t>
+  </si>
+  <si>
+    <t>Solo Choreo</t>
+  </si>
+  <si>
+    <t>Men's Styling</t>
+  </si>
+  <si>
+    <t>Ladies' Styling</t>
+  </si>
+  <si>
+    <t>Bryan Wong</t>
+  </si>
+  <si>
+    <t>Intro to Reggaeton</t>
+  </si>
+  <si>
+    <t>Intro to Afro</t>
   </si>
 </sst>
 </file>
@@ -273,12 +324,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0">
-  <autoFilter ref="A1:G32" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G32">
-    <sortCondition ref="A2:A32"/>
-    <sortCondition ref="B2:B32"/>
-    <sortCondition ref="C2:C32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G55" totalsRowShown="0">
+  <autoFilter ref="A1:G55" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
+    <sortCondition ref="A2:A54"/>
+    <sortCondition ref="B2:B54"/>
+    <sortCondition ref="C2:C54"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -610,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -622,7 +673,7 @@
     <col min="2" max="2" width="9.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -661,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -684,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -750,19 +801,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -770,19 +821,19 @@
         <v>45597</v>
       </c>
       <c r="B7" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -793,19 +844,19 @@
         <v>45597</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -816,19 +867,19 @@
         <v>45597</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -839,22 +890,22 @@
         <v>45597</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -862,22 +913,22 @@
         <v>45597</v>
       </c>
       <c r="B11" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -885,22 +936,22 @@
         <v>45597</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -908,36 +959,36 @@
         <v>45597</v>
       </c>
       <c r="B13" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -951,16 +1002,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -974,22 +1025,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B16" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>28</v>
@@ -997,45 +1048,45 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B17" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>10</v>
@@ -1043,22 +1094,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1066,45 +1117,45 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B21" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1112,48 +1163,48 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B22" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B23" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1161,16 +1212,16 @@
         <v>45598</v>
       </c>
       <c r="B24" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1184,22 +1235,22 @@
         <v>45598</v>
       </c>
       <c r="B25" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1207,22 +1258,22 @@
         <v>45598</v>
       </c>
       <c r="B26" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1230,36 +1281,36 @@
         <v>45598</v>
       </c>
       <c r="B27" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B28" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1273,53 +1324,53 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B29" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B30" s="1">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B31" s="1">
         <v>12</v>
@@ -1328,16 +1379,545 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B36" s="1">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B39" s="1">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>45598</v>
+      </c>
+      <c r="B42" s="1">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B44" s="1">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B46" s="1">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B47" s="1">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B48" s="1">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B51" s="1">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B53" s="1">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B54" s="1">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748ECA68-BFA3-4B9A-96E3-C51F3EC0A4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2A175-0F14-43EC-863D-77AE83D6EFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Bachata Moderna</t>
   </si>
   <si>
-    <t>Bachata Footwork</t>
-  </si>
-  <si>
     <t>Peynao Er Bachatero</t>
   </si>
   <si>
@@ -155,18 +152,12 @@
     <t>Giovana &amp; Rafael</t>
   </si>
   <si>
-    <t>Qiosen &amp; Nathalie</t>
-  </si>
-  <si>
     <t>Cha Cha Chá</t>
   </si>
   <si>
     <t>Gabriel &amp; Jessica</t>
   </si>
   <si>
-    <t>Bachata Dominicana</t>
-  </si>
-  <si>
     <t>Dani K</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>Dominican, Moderna &amp; Sensual</t>
   </si>
   <si>
-    <t>Camy</t>
-  </si>
-  <si>
     <t>Pebbles</t>
   </si>
   <si>
@@ -230,22 +218,40 @@
     <t>Elijah &amp; Flame</t>
   </si>
   <si>
-    <t>Solo Choreo</t>
-  </si>
-  <si>
     <t>Men's Styling</t>
   </si>
   <si>
     <t>Ladies' Styling</t>
   </si>
   <si>
-    <t>Bryan Wong</t>
-  </si>
-  <si>
     <t>Intro to Reggaeton</t>
   </si>
   <si>
     <t>Intro to Afro</t>
+  </si>
+  <si>
+    <t>Katerina</t>
+  </si>
+  <si>
+    <t>Camy &amp; Bryan</t>
+  </si>
+  <si>
+    <t>Qiosen &amp; Natalie</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Dominican Footwork</t>
+  </si>
+  <si>
+    <t>Dominican Bachata</t>
+  </si>
+  <si>
+    <t>Instagram Choreo</t>
+  </si>
+  <si>
+    <t>Peynao &amp; Debora</t>
   </si>
 </sst>
 </file>
@@ -324,12 +330,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G55" totalsRowShown="0">
-  <autoFilter ref="A1:G55" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
-    <sortCondition ref="A2:A54"/>
-    <sortCondition ref="B2:B54"/>
-    <sortCondition ref="C2:C54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G59" totalsRowShown="0">
+  <autoFilter ref="A1:G59" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G59">
+    <sortCondition ref="A2:A59"/>
+    <sortCondition ref="B2:B59"/>
+    <sortCondition ref="C2:C59"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -661,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -712,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -735,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -804,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -867,22 +873,22 @@
         <v>45597</v>
       </c>
       <c r="B9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -893,16 +899,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
@@ -916,19 +922,19 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -939,19 +945,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -959,22 +965,22 @@
         <v>45597</v>
       </c>
       <c r="B13" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -985,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
@@ -1008,19 +1014,19 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1031,19 +1037,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1051,22 +1057,22 @@
         <v>45597</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1077,19 +1083,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1100,19 +1106,19 @@
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1123,19 +1129,19 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1143,22 +1149,22 @@
         <v>45597</v>
       </c>
       <c r="B21" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1169,16 +1175,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>10</v>
@@ -1192,42 +1198,42 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B24" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1238,16 +1244,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
@@ -1261,19 +1267,19 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1284,19 +1290,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1304,22 +1310,22 @@
         <v>45598</v>
       </c>
       <c r="B28" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1327,22 +1333,22 @@
         <v>45598</v>
       </c>
       <c r="B29" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1353,19 +1359,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1376,19 +1382,19 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1396,19 +1402,19 @@
         <v>45598</v>
       </c>
       <c r="B32" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1419,22 +1425,22 @@
         <v>45598</v>
       </c>
       <c r="B33" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1445,16 +1451,16 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1468,19 +1474,19 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1488,22 +1494,22 @@
         <v>45598</v>
       </c>
       <c r="B36" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1511,22 +1517,22 @@
         <v>45598</v>
       </c>
       <c r="B37" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1537,19 +1543,19 @@
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1560,19 +1566,19 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1580,22 +1586,22 @@
         <v>45598</v>
       </c>
       <c r="B40" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1603,22 +1609,22 @@
         <v>45598</v>
       </c>
       <c r="B41" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1629,39 +1635,39 @@
         <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B43" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
@@ -1669,25 +1675,25 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B44" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1698,19 +1704,19 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1718,19 +1724,19 @@
         <v>45599</v>
       </c>
       <c r="B46" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>10</v>
@@ -1741,22 +1747,22 @@
         <v>45599</v>
       </c>
       <c r="B47" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1764,22 +1770,22 @@
         <v>45599</v>
       </c>
       <c r="B48" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1787,13 +1793,13 @@
         <v>45599</v>
       </c>
       <c r="B49" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -1810,19 +1816,19 @@
         <v>45599</v>
       </c>
       <c r="B50" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>10</v>
@@ -1833,22 +1839,22 @@
         <v>45599</v>
       </c>
       <c r="B51" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1856,22 +1862,22 @@
         <v>45599</v>
       </c>
       <c r="B52" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1879,22 +1885,22 @@
         <v>45599</v>
       </c>
       <c r="B53" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1902,22 +1908,137 @@
         <v>45599</v>
       </c>
       <c r="B54" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B55" s="1">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B56" s="1">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B57" s="1">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B58" s="1">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B59" s="1">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2A175-0F14-43EC-863D-77AE83D6EFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46926BD-9ADF-4897-ACFC-42C6F3F0DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -122,9 +122,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>Ariana</t>
-  </si>
-  <si>
     <t>Reggaeton</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Peynao &amp; Debora</t>
+  </si>
+  <si>
+    <t>Ariana Zuna Ortega</t>
+  </si>
+  <si>
+    <t>Bachazouk</t>
   </si>
 </sst>
 </file>
@@ -330,12 +333,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G59" totalsRowShown="0">
-  <autoFilter ref="A1:G59" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G59">
-    <sortCondition ref="A2:A59"/>
-    <sortCondition ref="B2:B59"/>
-    <sortCondition ref="C2:C59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G62" totalsRowShown="0">
+  <autoFilter ref="A1:G62" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
+    <sortCondition ref="A2:A61"/>
+    <sortCondition ref="B2:B61"/>
+    <sortCondition ref="C2:C61"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -667,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -718,7 +721,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -741,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -810,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -879,10 +882,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -905,7 +908,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -925,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -971,10 +974,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -994,10 +997,10 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1017,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1040,10 +1043,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1063,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1086,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1109,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
@@ -1129,19 +1132,19 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1152,19 +1155,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1178,16 +1181,16 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1201,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -1221,42 +1224,42 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B25" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1267,16 +1270,16 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1293,13 +1296,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1313,19 +1316,19 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1336,19 +1339,19 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1356,22 +1359,22 @@
         <v>45598</v>
       </c>
       <c r="B30" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1382,16 +1385,16 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
@@ -1405,19 +1408,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1428,19 +1431,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1448,22 +1451,22 @@
         <v>45598</v>
       </c>
       <c r="B34" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1474,19 +1477,19 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1497,19 +1500,19 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1520,19 +1523,19 @@
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1540,22 +1543,22 @@
         <v>45598</v>
       </c>
       <c r="B38" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1566,16 +1569,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
@@ -1589,19 +1592,19 @@
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1612,19 +1615,19 @@
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1632,22 +1635,22 @@
         <v>45598</v>
       </c>
       <c r="B42" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1658,16 +1661,16 @@
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
@@ -1681,65 +1684,65 @@
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B45" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B46" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1750,19 +1753,19 @@
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1773,19 +1776,19 @@
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1793,22 +1796,22 @@
         <v>45599</v>
       </c>
       <c r="B49" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1816,22 +1819,22 @@
         <v>45599</v>
       </c>
       <c r="B50" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1842,16 +1845,16 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>10</v>
@@ -1865,19 +1868,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1888,19 +1891,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1908,22 +1911,22 @@
         <v>45599</v>
       </c>
       <c r="B54" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -1931,22 +1934,22 @@
         <v>45599</v>
       </c>
       <c r="B55" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
         <v>37</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -1957,19 +1960,19 @@
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
@@ -1977,16 +1980,16 @@
         <v>45599</v>
       </c>
       <c r="B57" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -2000,22 +2003,22 @@
         <v>45599</v>
       </c>
       <c r="B58" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2026,18 +2029,64 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B60" s="1">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B61" s="1">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46926BD-9ADF-4897-ACFC-42C6F3F0DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35421D5D-36A5-43E8-8BD0-D69DDA8E36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Bachazouk</t>
+  </si>
+  <si>
+    <t>Ramiro &amp; Natalie</t>
   </si>
 </sst>
 </file>
@@ -333,12 +336,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G62" totalsRowShown="0">
-  <autoFilter ref="A1:G62" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
-    <sortCondition ref="A2:A61"/>
-    <sortCondition ref="B2:B61"/>
-    <sortCondition ref="C2:C61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G64" totalsRowShown="0">
+  <autoFilter ref="A1:G64" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G64">
+    <sortCondition ref="A2:A64"/>
+    <sortCondition ref="B2:B64"/>
+    <sortCondition ref="C2:C64"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -790,13 +793,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -804,42 +807,42 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B6" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -856,19 +859,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -879,19 +882,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -899,22 +902,22 @@
         <v>45597</v>
       </c>
       <c r="B10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -922,22 +925,22 @@
         <v>45597</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -948,19 +951,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -971,19 +974,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -991,22 +994,22 @@
         <v>45597</v>
       </c>
       <c r="B14" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1014,22 +1017,22 @@
         <v>45597</v>
       </c>
       <c r="B15" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1040,19 +1043,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1063,19 +1066,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1083,22 +1086,22 @@
         <v>45597</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1106,22 +1109,22 @@
         <v>45597</v>
       </c>
       <c r="B19" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1129,22 +1132,22 @@
         <v>45597</v>
       </c>
       <c r="B20" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1155,19 +1158,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1175,22 +1178,22 @@
         <v>45597</v>
       </c>
       <c r="B22" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1198,22 +1201,22 @@
         <v>45597</v>
       </c>
       <c r="B23" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1221,16 +1224,16 @@
         <v>45597</v>
       </c>
       <c r="B24" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1247,16 +1250,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -1264,22 +1267,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B26" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1287,22 +1290,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B27" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1310,25 +1313,25 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B28" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1339,19 +1342,19 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1362,19 +1365,19 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1382,16 +1385,16 @@
         <v>45598</v>
       </c>
       <c r="B31" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -1405,22 +1408,22 @@
         <v>45598</v>
       </c>
       <c r="B32" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1428,22 +1431,22 @@
         <v>45598</v>
       </c>
       <c r="B33" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1454,19 +1457,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1474,22 +1477,22 @@
         <v>45598</v>
       </c>
       <c r="B35" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1497,22 +1500,22 @@
         <v>45598</v>
       </c>
       <c r="B36" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1520,22 +1523,22 @@
         <v>45598</v>
       </c>
       <c r="B37" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1546,19 +1549,19 @@
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1566,19 +1569,19 @@
         <v>45598</v>
       </c>
       <c r="B39" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
@@ -1589,22 +1592,22 @@
         <v>45598</v>
       </c>
       <c r="B40" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1612,22 +1615,22 @@
         <v>45598</v>
       </c>
       <c r="B41" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1638,19 +1641,19 @@
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1658,19 +1661,19 @@
         <v>45598</v>
       </c>
       <c r="B43" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
@@ -1681,22 +1684,22 @@
         <v>45598</v>
       </c>
       <c r="B44" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1">
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1704,22 +1707,22 @@
         <v>45598</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1730,39 +1733,39 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B47" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>10</v>
@@ -1770,48 +1773,48 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B48" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B49" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1822,19 +1825,19 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1842,19 +1845,19 @@
         <v>45599</v>
       </c>
       <c r="B51" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>10</v>
@@ -1865,22 +1868,22 @@
         <v>45599</v>
       </c>
       <c r="B52" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1888,22 +1891,22 @@
         <v>45599</v>
       </c>
       <c r="B53" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1914,19 +1917,19 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -1937,19 +1940,19 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -1957,19 +1960,19 @@
         <v>45599</v>
       </c>
       <c r="B56" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -1980,22 +1983,22 @@
         <v>45599</v>
       </c>
       <c r="B57" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2003,22 +2006,22 @@
         <v>45599</v>
       </c>
       <c r="B58" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2026,19 +2029,19 @@
         <v>45599</v>
       </c>
       <c r="B59" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>10</v>
@@ -2049,19 +2052,19 @@
         <v>45599</v>
       </c>
       <c r="B60" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>10</v>
@@ -2072,21 +2075,90 @@
         <v>45599</v>
       </c>
       <c r="B61" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B63" s="1">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B64" s="1">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
         <v>44</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E64" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F64" s="1">
         <v>3</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35421D5D-36A5-43E8-8BD0-D69DDA8E36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5496A-75CA-4F65-94C0-7EFA459F967C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1897,10 +1897,10 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -1920,10 +1920,10 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1989,13 +1989,13 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
@@ -2012,10 +2012,10 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
@@ -2029,16 +2029,16 @@
         <v>45599</v>
       </c>
       <c r="B59" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>45599</v>
       </c>
       <c r="B60" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
@@ -2075,19 +2075,19 @@
         <v>45599</v>
       </c>
       <c r="B61" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -2098,7 +2098,7 @@
         <v>45599</v>
       </c>
       <c r="B62" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>16</v>
@@ -2121,7 +2121,7 @@
         <v>45599</v>
       </c>
       <c r="B63" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
@@ -2144,7 +2144,7 @@
         <v>45599</v>
       </c>
       <c r="B64" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5496A-75CA-4F65-94C0-7EFA459F967C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B6564D-1300-4C99-B705-D3CAF5FB0124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Ramiro &amp; Natalie</t>
+  </si>
+  <si>
+    <t>Fitness Warm-Up</t>
+  </si>
+  <si>
+    <t>Dominican Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -336,12 +342,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G64" totalsRowShown="0">
-  <autoFilter ref="A1:G64" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G64">
-    <sortCondition ref="A2:A64"/>
-    <sortCondition ref="B2:B64"/>
-    <sortCondition ref="C2:C64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G67" totalsRowShown="0">
+  <autoFilter ref="A1:G67" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G67">
+    <sortCondition ref="A2:A67"/>
+    <sortCondition ref="B2:B67"/>
+    <sortCondition ref="C2:C67"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -839,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -856,22 +862,22 @@
         <v>45597</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -882,16 +888,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -905,19 +911,19 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -928,19 +934,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -948,22 +954,22 @@
         <v>45597</v>
       </c>
       <c r="B12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -974,16 +980,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
@@ -997,19 +1003,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1020,19 +1026,19 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1040,22 +1046,22 @@
         <v>45597</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1066,16 +1072,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
@@ -1092,13 +1098,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>10</v>
@@ -1112,19 +1118,19 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1135,19 +1141,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1155,22 +1161,22 @@
         <v>45597</v>
       </c>
       <c r="B21" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1181,19 +1187,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1204,19 +1210,19 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1227,19 +1233,19 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1247,22 +1253,22 @@
         <v>45597</v>
       </c>
       <c r="B25" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1273,19 +1279,19 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1299,13 +1305,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1319,42 +1325,42 @@
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B29" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1362,22 +1368,22 @@
         <v>45598</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1388,16 +1394,16 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
@@ -1411,19 +1417,19 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1434,19 +1440,19 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1454,22 +1460,22 @@
         <v>45598</v>
       </c>
       <c r="B34" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1477,22 +1483,22 @@
         <v>45598</v>
       </c>
       <c r="B35" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1503,19 +1509,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1526,19 +1532,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1546,19 +1552,19 @@
         <v>45598</v>
       </c>
       <c r="B38" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1569,22 +1575,22 @@
         <v>45598</v>
       </c>
       <c r="B39" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1595,16 +1601,16 @@
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1618,19 +1624,19 @@
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1638,22 +1644,22 @@
         <v>45598</v>
       </c>
       <c r="B42" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1661,22 +1667,22 @@
         <v>45598</v>
       </c>
       <c r="B43" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1687,19 +1693,19 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1710,19 +1716,19 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1730,22 +1736,22 @@
         <v>45598</v>
       </c>
       <c r="B46" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1753,22 +1759,22 @@
         <v>45598</v>
       </c>
       <c r="B47" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1779,19 +1785,19 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1802,65 +1808,65 @@
         <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B50" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B51" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1871,19 +1877,19 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1894,19 +1900,19 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1914,22 +1920,22 @@
         <v>45599</v>
       </c>
       <c r="B54" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -1937,22 +1943,22 @@
         <v>45599</v>
       </c>
       <c r="B55" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -1963,16 +1969,16 @@
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -1986,19 +1992,19 @@
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2009,19 +2015,19 @@
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2029,22 +2035,22 @@
         <v>45599</v>
       </c>
       <c r="B59" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2052,22 +2058,22 @@
         <v>45599</v>
       </c>
       <c r="B60" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F60" s="1">
         <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2078,19 +2084,19 @@
         <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
@@ -2098,16 +2104,16 @@
         <v>45599</v>
       </c>
       <c r="B62" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
@@ -2121,22 +2127,22 @@
         <v>45599</v>
       </c>
       <c r="B63" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2147,18 +2153,64 @@
         <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B65" s="1">
+        <v>19</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B66" s="1">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B6564D-1300-4C99-B705-D3CAF5FB0124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930E79B-0403-4DB9-B504-23D3CF8D43A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>Dominican Fundamentals</t>
+  </si>
+  <si>
+    <t>Madrid Variations</t>
+  </si>
+  <si>
+    <t>Footwork &amp; Shines</t>
+  </si>
+  <si>
+    <t>Camy</t>
   </si>
 </sst>
 </file>
@@ -342,12 +351,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G67" totalsRowShown="0">
-  <autoFilter ref="A1:G67" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G67">
-    <sortCondition ref="A2:A67"/>
-    <sortCondition ref="B2:B67"/>
-    <sortCondition ref="C2:C67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G70" totalsRowShown="0">
+  <autoFilter ref="A1:G70" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G69">
+    <sortCondition ref="A2:A69"/>
+    <sortCondition ref="B2:B69"/>
+    <sortCondition ref="C2:C69"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -679,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1069,19 +1078,19 @@
         <v>45597</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
@@ -1092,22 +1101,22 @@
         <v>45597</v>
       </c>
       <c r="B18" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1118,16 +1127,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
@@ -1141,19 +1150,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -1164,19 +1173,19 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1184,22 +1193,22 @@
         <v>45597</v>
       </c>
       <c r="B22" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1210,19 +1219,19 @@
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1233,19 +1242,19 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1256,19 +1265,19 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1276,22 +1285,22 @@
         <v>45597</v>
       </c>
       <c r="B26" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1302,19 +1311,19 @@
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1328,13 +1337,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
@@ -1348,42 +1357,42 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B30" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1391,22 +1400,22 @@
         <v>45598</v>
       </c>
       <c r="B31" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1417,16 +1426,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
@@ -1443,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
         <v>60</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>10</v>
@@ -1463,19 +1472,19 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1486,19 +1495,19 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1506,22 +1515,22 @@
         <v>45598</v>
       </c>
       <c r="B36" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1532,16 +1541,16 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>10</v>
@@ -1555,19 +1564,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1578,19 +1587,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1598,22 +1607,22 @@
         <v>45598</v>
       </c>
       <c r="B40" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1621,19 +1630,19 @@
         <v>45598</v>
       </c>
       <c r="B41" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>10</v>
@@ -1644,22 +1653,22 @@
         <v>45598</v>
       </c>
       <c r="B42" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1670,19 +1679,19 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1690,16 +1699,16 @@
         <v>45598</v>
       </c>
       <c r="B44" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1713,22 +1722,22 @@
         <v>45598</v>
       </c>
       <c r="B45" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1736,22 +1745,22 @@
         <v>45598</v>
       </c>
       <c r="B46" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1762,19 +1771,19 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1782,19 +1791,19 @@
         <v>45598</v>
       </c>
       <c r="B48" s="1">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>10</v>
@@ -1805,22 +1814,22 @@
         <v>45598</v>
       </c>
       <c r="B49" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1">
         <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1828,22 +1837,22 @@
         <v>45598</v>
       </c>
       <c r="B50" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1854,39 +1863,39 @@
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B52" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>10</v>
@@ -1894,48 +1903,48 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B53" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B54" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -1946,19 +1955,19 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -1966,19 +1975,19 @@
         <v>45599</v>
       </c>
       <c r="B56" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -1989,22 +1998,22 @@
         <v>45599</v>
       </c>
       <c r="B57" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2012,22 +2021,22 @@
         <v>45599</v>
       </c>
       <c r="B58" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F58" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2038,19 +2047,19 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2061,19 +2070,19 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2081,19 +2090,19 @@
         <v>45599</v>
       </c>
       <c r="B61" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>10</v>
@@ -2104,22 +2113,22 @@
         <v>45599</v>
       </c>
       <c r="B62" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2127,22 +2136,22 @@
         <v>45599</v>
       </c>
       <c r="B63" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F63" s="1">
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2150,19 +2159,19 @@
         <v>45599</v>
       </c>
       <c r="B64" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>10</v>
@@ -2173,19 +2182,19 @@
         <v>45599</v>
       </c>
       <c r="B65" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>10</v>
@@ -2196,21 +2205,90 @@
         <v>45599</v>
       </c>
       <c r="B66" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1">
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="1">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930E79B-0403-4DB9-B504-23D3CF8D43A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DA807-8D25-47E5-BF70-A92E98FF8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
+    <workbookView xWindow="4740" yWindow="1995" windowWidth="21338" windowHeight="11422" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Camy</t>
+  </si>
+  <si>
+    <t>Daniel Carbonero</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1084,13 +1087,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
@@ -1107,13 +1110,13 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1176,13 +1179,13 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1245,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
@@ -1268,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DA807-8D25-47E5-BF70-A92E98FF8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E51B9-2CA0-43ED-BA5A-6AA1FF55F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1995" windowWidth="21338" windowHeight="11422" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Salsa On1</t>
   </si>
   <si>
-    <t>Pierre &amp; Laura</t>
-  </si>
-  <si>
     <t>Bachata Moderna</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Debora Lima</t>
   </si>
   <si>
-    <t>Laura Ann Williams</t>
-  </si>
-  <si>
     <t>Salsaton</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>Daniel Carbonero</t>
+  </si>
+  <si>
+    <t>Pierre &amp; Laurita</t>
+  </si>
+  <si>
+    <t>Laurita</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -834,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -883,13 +883,13 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -903,7 +903,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -972,16 +972,16 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -998,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -1064,16 +1064,16 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -1087,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -1110,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1133,10 +1133,10 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -1202,16 +1202,16 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1294,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -1317,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
         <v>21</v>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1363,10 +1363,10 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
         <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -1412,13 +1412,13 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1432,10 +1432,10 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -1478,10 +1478,10 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
@@ -1501,7 +1501,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
@@ -1524,16 +1524,16 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1547,7 +1547,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1573,7 +1573,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
@@ -1593,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -1616,16 +1616,16 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1639,10 +1639,10 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -1662,7 +1662,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1685,10 +1685,10 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
         <v>39</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
       </c>
       <c r="F43" s="1">
         <v>2</v>
@@ -1708,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
         <v>45</v>
-      </c>
-      <c r="E44" t="s">
-        <v>46</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1754,16 +1754,16 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1">
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1777,10 +1777,10 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -1823,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>20</v>
@@ -1846,16 +1846,16 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
         <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>53</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1869,7 +1869,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1892,7 +1892,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1915,10 +1915,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -1938,16 +1938,16 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
         <v>49</v>
-      </c>
-      <c r="E54" t="s">
-        <v>50</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -1961,10 +1961,10 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F55" s="1">
         <v>2</v>
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -2007,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
@@ -2030,16 +2030,16 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2053,10 +2053,10 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
@@ -2099,10 +2099,10 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="1">
         <v>4</v>
@@ -2122,7 +2122,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -2145,16 +2145,16 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F63" s="1">
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2168,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -2191,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -2214,7 +2214,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -2237,10 +2237,10 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F67" s="1">
         <v>3</v>
@@ -2260,10 +2260,10 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68" s="1">
         <v>4</v>
@@ -2283,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E69" t="s">
         <v>20</v>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2E51B9-2CA0-43ED-BA5A-6AA1FF55F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066B9D9-BFE1-4357-9F18-472C365460E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -276,6 +276,24 @@
   </si>
   <si>
     <t>Laurita</t>
+  </si>
+  <si>
+    <t>Sensual Bachata Connection</t>
+  </si>
+  <si>
+    <t>Sensual Bachata Weight &amp; Balance</t>
+  </si>
+  <si>
+    <t>Cuban Partnerwork &amp; Musicality</t>
+  </si>
+  <si>
+    <t>Afro-Salsa Partnerwork</t>
+  </si>
+  <si>
+    <t>Bachata Reggaeton</t>
+  </si>
+  <si>
+    <t>Bachata Dynamic Moves</t>
   </si>
 </sst>
 </file>
@@ -354,12 +372,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G70" totalsRowShown="0">
-  <autoFilter ref="A1:G70" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G69">
-    <sortCondition ref="A2:A69"/>
-    <sortCondition ref="B2:B69"/>
-    <sortCondition ref="C2:C69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0">
+  <autoFilter ref="A1:G71" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
+    <sortCondition ref="A2:A71"/>
+    <sortCondition ref="B2:B71"/>
+    <sortCondition ref="C2:C71"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -691,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -952,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1021,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1084,19 +1102,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -1107,19 +1125,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -1127,22 +1145,22 @@
         <v>45597</v>
       </c>
       <c r="B19" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1153,16 +1171,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
@@ -1176,19 +1194,19 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -1199,19 +1217,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1219,22 +1237,22 @@
         <v>45597</v>
       </c>
       <c r="B23" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1245,19 +1263,19 @@
         <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1268,19 +1286,19 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1291,19 +1309,19 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1311,22 +1329,22 @@
         <v>45597</v>
       </c>
       <c r="B27" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1337,19 +1355,19 @@
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1363,13 +1381,13 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1383,42 +1401,42 @@
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B31" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1426,22 +1444,22 @@
         <v>45598</v>
       </c>
       <c r="B32" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1452,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -1475,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>61</v>
@@ -1498,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
@@ -1521,19 +1539,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1541,22 +1559,22 @@
         <v>45598</v>
       </c>
       <c r="B37" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1567,16 +1585,16 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>10</v>
@@ -1590,19 +1608,19 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1613,19 +1631,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1633,22 +1651,22 @@
         <v>45598</v>
       </c>
       <c r="B41" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1659,16 +1677,16 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>10</v>
@@ -1679,22 +1697,22 @@
         <v>45598</v>
       </c>
       <c r="B43" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1705,19 +1723,19 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1728,19 +1746,19 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1751,19 +1769,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1771,22 +1789,22 @@
         <v>45598</v>
       </c>
       <c r="B47" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1797,16 +1815,16 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F48" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>10</v>
@@ -1820,19 +1838,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F49" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1843,19 +1861,19 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1863,22 +1881,22 @@
         <v>45598</v>
       </c>
       <c r="B51" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1889,16 +1907,16 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>10</v>
@@ -1912,19 +1930,19 @@
         <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1935,42 +1953,42 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B55" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -1981,16 +1999,16 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -2004,19 +2022,19 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2027,19 +2045,19 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2047,22 +2065,22 @@
         <v>45599</v>
       </c>
       <c r="B59" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2073,16 +2091,16 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F60" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>10</v>
@@ -2099,13 +2117,13 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>10</v>
@@ -2119,19 +2137,19 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -2142,19 +2160,19 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2162,22 +2180,22 @@
         <v>45599</v>
       </c>
       <c r="B64" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2188,16 +2206,16 @@
         <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>10</v>
@@ -2211,19 +2229,19 @@
         <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2231,22 +2249,22 @@
         <v>45599</v>
       </c>
       <c r="B67" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1">
         <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
@@ -2257,16 +2275,16 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F68" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>10</v>
@@ -2280,18 +2298,41 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
         <v>43</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F70" s="1">
         <v>3</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2301,4 +2342,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{dd2e4901-b5ad-42ae-9e9d-f456e52148af}" enabled="1" method="Privileged" siteId="{3b07dc1f-22e7-4be1-ac66-a88bf3550222}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066B9D9-BFE1-4357-9F18-472C365460E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96559329-3043-45B9-88F2-472D42C8D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Bachata Dynamic Moves</t>
+  </si>
+  <si>
+    <t>Reggaeton con Sabor</t>
+  </si>
+  <si>
+    <t>Reggaeton in Heels</t>
   </si>
 </sst>
 </file>
@@ -712,7 +718,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1798,7 +1804,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -1982,10 +1988,10 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>26</v>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96559329-3043-45B9-88F2-472D42C8D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F347379-763F-4243-9217-69FB98A96768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>Reggaeton in Heels</t>
+  </si>
+  <si>
+    <t>Bachata Rueda</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0">
   <autoFilter ref="A1:G71" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
-    <sortCondition ref="A2:A71"/>
-    <sortCondition ref="B2:B71"/>
-    <sortCondition ref="C2:C71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G70">
+    <sortCondition ref="A2:A70"/>
+    <sortCondition ref="B2:B70"/>
+    <sortCondition ref="C2:C70"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -718,7 +721,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1919,10 +1922,10 @@
         <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>10</v>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F347379-763F-4243-9217-69FB98A96768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B9E93E-07E2-45D1-ADA4-F38CC0E2F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -381,12 +381,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0">
-  <autoFilter ref="A1:G71" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G70">
-    <sortCondition ref="A2:A70"/>
-    <sortCondition ref="B2:B70"/>
-    <sortCondition ref="C2:C70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G73" totalsRowShown="0">
+  <autoFilter ref="A1:G73" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G73">
+    <sortCondition ref="A2:A73"/>
+    <sortCondition ref="B2:B73"/>
+    <sortCondition ref="C2:C73"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -718,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1177,16 +1177,16 @@
         <v>45597</v>
       </c>
       <c r="B20" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1203,16 +1203,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1226,19 +1226,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1249,19 +1249,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1269,22 +1269,22 @@
         <v>45597</v>
       </c>
       <c r="B24" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1295,19 +1295,19 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1318,19 +1318,19 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1341,19 +1341,19 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1361,22 +1361,22 @@
         <v>45597</v>
       </c>
       <c r="B28" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1387,19 +1387,19 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1413,13 +1413,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1433,42 +1433,42 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="B32" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1476,22 +1476,22 @@
         <v>45598</v>
       </c>
       <c r="B33" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1505,13 +1505,13 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>10</v>
@@ -1525,19 +1525,19 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1548,19 +1548,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1571,19 +1571,19 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1591,22 +1591,22 @@
         <v>45598</v>
       </c>
       <c r="B38" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1617,16 +1617,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
@@ -1640,19 +1640,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1663,19 +1663,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1683,22 +1683,22 @@
         <v>45598</v>
       </c>
       <c r="B42" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1709,16 +1709,16 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>10</v>
@@ -1729,16 +1729,16 @@
         <v>45598</v>
       </c>
       <c r="B44" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F44" s="1">
         <v>2</v>
@@ -1752,22 +1752,22 @@
         <v>45598</v>
       </c>
       <c r="B45" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1778,16 +1778,16 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -1801,19 +1801,19 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1821,22 +1821,22 @@
         <v>45598</v>
       </c>
       <c r="B48" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1844,22 +1844,22 @@
         <v>45598</v>
       </c>
       <c r="B49" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1870,19 +1870,19 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -1893,19 +1893,19 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1913,22 +1913,22 @@
         <v>45598</v>
       </c>
       <c r="B52" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1936,22 +1936,22 @@
         <v>45598</v>
       </c>
       <c r="B53" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1962,19 +1962,19 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -1985,65 +1985,65 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B56" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
-        <v>45599</v>
+        <v>45598</v>
       </c>
       <c r="B57" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2054,19 +2054,19 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -2077,19 +2077,19 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2097,22 +2097,22 @@
         <v>45599</v>
       </c>
       <c r="B60" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2120,22 +2120,22 @@
         <v>45599</v>
       </c>
       <c r="B61" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
@@ -2146,16 +2146,16 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>10</v>
@@ -2169,19 +2169,19 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -2192,19 +2192,19 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2212,22 +2212,22 @@
         <v>45599</v>
       </c>
       <c r="B65" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -2235,22 +2235,22 @@
         <v>45599</v>
       </c>
       <c r="B66" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F66" s="1">
         <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2261,19 +2261,19 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
@@ -2281,16 +2281,16 @@
         <v>45599</v>
       </c>
       <c r="B68" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
@@ -2304,22 +2304,22 @@
         <v>45599</v>
       </c>
       <c r="B69" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F69" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
@@ -2330,18 +2330,64 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F70" s="1">
         <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>45599</v>
+      </c>
+      <c r="B72" s="1">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="1">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B9E93E-07E2-45D1-ADA4-F38CC0E2F6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E546B4-615B-4E48-BE2B-624633F6DDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -381,12 +381,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G73" totalsRowShown="0">
-  <autoFilter ref="A1:G73" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G73">
-    <sortCondition ref="A2:A73"/>
-    <sortCondition ref="B2:B73"/>
-    <sortCondition ref="C2:C73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}" name="Table1" displayName="Table1" ref="A1:G72" totalsRowShown="0">
+  <autoFilter ref="A1:G72" xr:uid="{E9DAC1ED-00DC-4704-AD86-4F739ADA28AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
+    <sortCondition ref="A2:A71"/>
+    <sortCondition ref="B2:B71"/>
+    <sortCondition ref="C2:C71"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4273A918-E66D-494B-A6D3-E6D2E99A501A}" name="Date" dataDxfId="4"/>
@@ -718,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1177,16 +1177,16 @@
         <v>45597</v>
       </c>
       <c r="B20" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1203,16 +1203,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1226,19 +1226,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1249,19 +1249,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -1269,22 +1269,22 @@
         <v>45597</v>
       </c>
       <c r="B24" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -1295,19 +1295,19 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1318,19 +1318,19 @@
         <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1341,19 +1341,19 @@
         <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
@@ -1361,22 +1361,22 @@
         <v>45597</v>
       </c>
       <c r="B28" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1387,19 +1387,19 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1413,13 +1413,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1433,42 +1433,42 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="B32" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1476,22 +1476,22 @@
         <v>45598</v>
       </c>
       <c r="B33" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1505,13 +1505,13 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>10</v>
@@ -1525,19 +1525,19 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1548,19 +1548,19 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1571,19 +1571,19 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -1591,22 +1591,22 @@
         <v>45598</v>
       </c>
       <c r="B38" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
@@ -1617,16 +1617,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
@@ -1640,19 +1640,19 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -1663,19 +1663,19 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -1683,22 +1683,22 @@
         <v>45598</v>
       </c>
       <c r="B42" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1709,19 +1709,19 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -1732,19 +1732,19 @@
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -1752,22 +1752,22 @@
         <v>45598</v>
       </c>
       <c r="B45" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -1778,19 +1778,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1801,16 +1801,16 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>10</v>
@@ -1824,19 +1824,19 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
@@ -1844,22 +1844,22 @@
         <v>45598</v>
       </c>
       <c r="B49" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1870,16 +1870,16 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>10</v>
@@ -1893,19 +1893,19 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
@@ -1916,19 +1916,19 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F52" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1936,22 +1936,22 @@
         <v>45598</v>
       </c>
       <c r="B53" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -1962,16 +1962,16 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>10</v>
@@ -1985,19 +1985,19 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -2008,42 +2008,42 @@
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
-        <v>45598</v>
+        <v>45599</v>
       </c>
       <c r="B57" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2054,16 +2054,16 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>10</v>
@@ -2077,19 +2077,19 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -2100,19 +2100,19 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2120,22 +2120,22 @@
         <v>45599</v>
       </c>
       <c r="B61" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
@@ -2146,16 +2146,16 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>10</v>
@@ -2172,13 +2172,13 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>10</v>
@@ -2192,19 +2192,19 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2215,19 +2215,19 @@
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -2235,22 +2235,22 @@
         <v>45599</v>
       </c>
       <c r="B66" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2261,16 +2261,16 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>10</v>
@@ -2284,19 +2284,19 @@
         <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
@@ -2304,22 +2304,22 @@
         <v>45599</v>
       </c>
       <c r="B69" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
@@ -2330,16 +2330,16 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F70" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>10</v>
@@ -2353,41 +2353,18 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F71" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="2">
-        <v>45599</v>
-      </c>
-      <c r="B72" s="1">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="1">
-        <v>3</v>
-      </c>
-      <c r="G72" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E546B4-615B-4E48-BE2B-624633F6DDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C9AB1-355B-4954-A574-BE43286BED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Diego &amp; Ola</t>
   </si>
   <si>
-    <t>Marky Marc</t>
-  </si>
-  <si>
     <t>Leo &amp; Carla</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
   </si>
   <si>
     <t>Qiosen &amp; Natalie</t>
-  </si>
-  <si>
-    <t>Andre</t>
   </si>
   <si>
     <t>Dominican Footwork</t>
@@ -720,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -910,7 +904,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -930,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -979,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1002,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1025,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1048,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1068,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -1091,10 +1085,10 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1117,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1137,10 +1131,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1160,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -1186,7 +1180,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1206,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1252,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1278,7 +1272,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
@@ -1301,7 +1295,7 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -1344,10 +1338,10 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1367,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>21</v>
@@ -1390,7 +1384,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1413,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1462,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1485,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -1505,10 +1499,10 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
@@ -1554,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1574,7 +1568,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -1597,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1643,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -1669,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1692,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -1735,10 +1729,10 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1781,10 +1775,10 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
         <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>45</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1804,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1827,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
@@ -1853,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1876,7 +1870,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -1896,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" t="s">
         <v>20</v>
@@ -1919,10 +1913,10 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
         <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>52</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -1942,10 +1936,10 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1988,10 +1982,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2014,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -2037,7 +2031,7 @@
         <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -2060,7 +2054,7 @@
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F58" s="1">
         <v>4</v>
@@ -2080,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
@@ -2103,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -2126,10 +2120,10 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2152,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="1">
         <v>2</v>
@@ -2175,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="1">
         <v>4</v>
@@ -2195,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -2241,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2310,10 +2304,10 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
@@ -2356,7 +2350,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
         <v>20</v>

--- a/sql/workshop.xlsx
+++ b/sql/workshop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I31759\source\repos\BOSMAJ24\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172C9AB1-355B-4954-A574-BE43286BED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7385F83-D81D-414F-981B-0F7DD8C10F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{DB9DD36F-CBDB-4B2C-85EB-27708DA6102D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Flame</t>
   </si>
   <si>
-    <t>Heels</t>
-  </si>
-  <si>
     <t>Dominican, Moderna &amp; Sensual</t>
   </si>
   <si>
@@ -297,6 +294,12 @@
   </si>
   <si>
     <t>Bachata Rueda</t>
+  </si>
+  <si>
+    <t>Heels - Body Language</t>
+  </si>
+  <si>
+    <t>Ladies' Styling - Less is More</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD46DBA-6804-4495-ADBD-AA612CC1CC3F}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -904,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -973,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -996,7 +999,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1019,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1042,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1085,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1131,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1154,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -1180,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1246,10 +1249,10 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
@@ -1295,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -1338,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
@@ -1384,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1456,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1479,7 +1482,7 @@
         <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -1499,10 +1502,10 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
@@ -1548,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1568,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -1591,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1637,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -1663,7 +1666,7 @@
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1686,7 +1689,7 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -1732,7 +1735,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1798,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1821,10 +1824,10 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" s="1">
         <v>2</v>
@@ -1847,7 +1850,7 @@
         <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1870,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -1913,10 +1916,10 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
         <v>50</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -1936,10 +1939,10 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1982,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2008,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -2031,7 +2034,7 @@
         <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="1">
         <v>2</v>
@@ -2054,7 +2057,7 @@
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" s="1">
         <v>4</v>
@@ -2097,7 +2100,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
@@ -2123,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2146,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" s="1">
         <v>2</v>
@@ -2169,7 +2172,7 @@
         <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" s="1">
         <v>4</v>
@@ -2189,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -2235,7 +2238,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2304,10 +2307,10 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
